--- a/desinventar/match_districts_DRR_to_DES.xlsx
+++ b/desinventar/match_districts_DRR_to_DES.xlsx
@@ -862,6 +862,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
